--- a/Day2/Default.xlsx
+++ b/Day2/Default.xlsx
@@ -4,14 +4,23 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Action1" sheetId="2" r:id="rId2"/>
+    <sheet name="Ex2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+  <si>
+    <t>HowMany</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -154,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -162,13 +171,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -467,16 +492,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -486,7 +521,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -499,4 +534,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Day2/Default.xlsx
+++ b/Day2/Default.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Action1" sheetId="2" r:id="rId2"/>
-    <sheet name="Ex2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -492,9 +491,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
@@ -512,6 +513,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -521,7 +532,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -534,23 +545,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Day2/Default.xlsx
+++ b/Day2/Default.xlsx
@@ -162,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -170,29 +170,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -491,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -506,21 +490,6 @@
     <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Day2/Default.xlsx
+++ b/Day2/Default.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>HowMany</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -477,9 +477,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>

--- a/Day2/Default.xlsx
+++ b/Day2/Default.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>A</t>
+    <t>HowMany</t>
   </si>
 </sst>
 </file>
@@ -162,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,13 +170,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -475,19 +491,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="1" width="9.41796875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="2" max="16381" width="8.8984375" style="1" customWidth="1"/>
+    <col min="16382" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1">
+    <row r="1" customFormat="1">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
